--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,31 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-Study\Boston University\Research\CIDAR-lab\2023\oriole\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819247D-2AAE-4CA5-A824-B123EC1C51D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Circuit comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="MD5 settings comparison" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+  <si>
+    <t>Jing's partition result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METIS partition result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jing's run time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METIS run time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 input NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-input NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-input NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-input NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-input NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-input NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All types of 2-input gates except XOR and XNOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All types of 2-input gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original gate number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all except</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHA256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apollo 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel = 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel = 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriole(I=1) gate number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriole(I=10) gate number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriole(I=100) gate number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriole(I=1) run time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriole(I=10) run time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriole(I=100) run time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5 (2-input NOR, NOT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +211,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +523,724 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.875" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3">
+        <v>3</v>
+      </c>
+      <c r="T2" s="3">
+        <v>4</v>
+      </c>
+      <c r="U2" s="3">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3">
+        <v>8</v>
+      </c>
+      <c r="W2" s="3">
+        <v>10</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2335A81B-E9B4-4E35-878E-52A949060F76}">
+  <dimension ref="A1:AK14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4">
+        <v>128</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4">
+        <v>64</v>
+      </c>
+      <c r="M3" s="4">
+        <v>128</v>
+      </c>
+      <c r="N3" s="4">
+        <v>4</v>
+      </c>
+      <c r="O3" s="4">
+        <v>8</v>
+      </c>
+      <c r="P3" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>32</v>
+      </c>
+      <c r="R3" s="4">
+        <v>64</v>
+      </c>
+      <c r="S3" s="4">
+        <v>128</v>
+      </c>
+      <c r="T3" s="4">
+        <v>4</v>
+      </c>
+      <c r="U3" s="4">
+        <v>8</v>
+      </c>
+      <c r="V3" s="4">
+        <v>16</v>
+      </c>
+      <c r="W3" s="4">
+        <v>32</v>
+      </c>
+      <c r="X3" s="4">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>128</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>128</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>64</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>